--- a/Track_Layout_Vehicle_Data_vF1.xlsx
+++ b/Track_Layout_Vehicle_Data_vF1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianxin\Desktop\CTC\CTC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="132" windowWidth="13380" windowHeight="6336" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="3" r:id="rId1"/>
@@ -19,12 +14,12 @@
     <sheet name="Vehicle Data 1" sheetId="5" r:id="rId5"/>
     <sheet name="Vehicle Data 2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="91">
   <si>
     <t>Block Number</t>
   </si>
@@ -134,12 +129,36 @@
     <t>UNDERGROUND</t>
   </si>
   <si>
+    <t>SWITCH; UNDERGROUND</t>
+  </si>
+  <si>
     <t>ELEVATION (M)</t>
   </si>
   <si>
     <t>CUMALTIVE ELEVATION (M)</t>
   </si>
   <si>
+    <t>STATION: SHADYSIDE</t>
+  </si>
+  <si>
+    <t>STATION: HERRON AVE</t>
+  </si>
+  <si>
+    <t>STATION;     STEEL PLAZA; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION;    PENN STATION; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION;     FIRST AVE; UNDERGROUND</t>
+  </si>
+  <si>
+    <t>STATION; STATION SQUARE</t>
+  </si>
+  <si>
+    <t>STATION; SOUTH HILLS JUNCTION</t>
+  </si>
+  <si>
     <t>Speed Limit (Km/Hr)</t>
   </si>
   <si>
@@ -164,6 +183,9 @@
     <t>SWITCH TO YARD</t>
   </si>
   <si>
+    <t>SWITCH TO/FROM YARD</t>
+  </si>
+  <si>
     <t>SWITCH FROM YARD</t>
   </si>
   <si>
@@ -200,6 +222,9 @@
     <t>STATION; OVERBROOK; UNDERGROUND</t>
   </si>
   <si>
+    <t>STATION; SWISSVILLE</t>
+  </si>
+  <si>
     <t>RAILWAY CROSSING</t>
   </si>
   <si>
@@ -221,6 +246,27 @@
     <t>Switch 5</t>
   </si>
   <si>
+    <t>Switch 10</t>
+  </si>
+  <si>
+    <t>Switch 6</t>
+  </si>
+  <si>
+    <t>Switch 7</t>
+  </si>
+  <si>
+    <t>Switch 8</t>
+  </si>
+  <si>
+    <t>Switch 9</t>
+  </si>
+  <si>
+    <t>Switch 11</t>
+  </si>
+  <si>
+    <t>Switch 12</t>
+  </si>
+  <si>
     <t>Switch 0</t>
   </si>
   <si>
@@ -245,93 +291,36 @@
     <t>Arrow Direction</t>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>J</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>Head/Head</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -339,7 +328,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -361,7 +350,7 @@
       <b/>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -371,13 +360,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -399,7 +381,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -423,7 +405,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,19 +423,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -889,7 +863,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -931,7 +905,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -963,10 +937,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -998,7 +971,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1174,54 +1146,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.6">
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="5.4" customHeight="1"/>
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="B4" s="9"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomLeft" activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3"/>
     <col min="2" max="2" width="12.88671875" style="3" customWidth="1"/>
@@ -1237,7 +1208,7 @@
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="37.799999999999997" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1254,1025 +1225,2800 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3">
         <v>0.5</v>
       </c>
       <c r="F2" s="3">
-        <v>55</v>
-      </c>
-      <c r="I2" s="3">
+        <v>40</v>
+      </c>
+      <c r="I2" s="12">
         <f>E2*D2/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="12">
         <f>I2</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Red</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>55</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I22" si="0">E3*D3/100</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
+        <v>40</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I66" si="0">E3*D3/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="12">
         <f>I3+J2</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="str">
-        <f t="shared" ref="A4:A16" si="1">A3</f>
+        <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Red</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3">
         <v>1.5</v>
       </c>
       <c r="F4" s="3">
-        <v>55</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" ref="J4:J67" si="2">I4+J3</f>
         <v>1.5</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" ref="J4:J22" si="2">I4+J3</f>
-        <v>3</v>
-      </c>
       <c r="L4" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>55</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F6" s="3">
-        <v>55</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>55</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="31.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E8" s="3">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="3">
-        <v>55</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="2"/>
+        <v>4.125</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>55</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="2"/>
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="31.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="2"/>
+        <v>4.125</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5">
         <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>55</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="2"/>
+        <v>4.125</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3">
-        <v>-4</v>
+        <v>-0.5</v>
       </c>
       <c r="F12" s="3">
-        <v>55</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.375</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5">
         <v>12</v>
       </c>
       <c r="D13" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3">
-        <v>-3</v>
+        <v>-0.5</v>
       </c>
       <c r="F13" s="3">
-        <v>55</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.375</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="2"/>
+        <v>3.375</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
       </c>
       <c r="D14" s="3">
-        <v>150</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="3">
-        <v>70</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.68400000000000005</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="2"/>
+        <v>2.6909999999999998</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
       </c>
       <c r="D15" s="3">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F15" s="3">
-        <v>70</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="2"/>
+        <v>2.0909999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5">
         <v>15</v>
       </c>
       <c r="D16" s="3">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F16" s="3">
-        <v>70</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G17" s="11"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G20" s="11"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="5"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="5"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="5"/>
-      <c r="G26" s="11"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="5"/>
-      <c r="G28" s="11"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="5"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C33" s="5"/>
-      <c r="G33" s="11"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="5"/>
-      <c r="G36" s="11"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="5"/>
-      <c r="G39" s="11"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="5"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G44" s="11"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G46" s="11"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="5"/>
-      <c r="G48" s="11"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G49" s="11"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C54" s="5"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C57" s="5"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="5"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="G61" s="11"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C63" s="5"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="5"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="5"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C72" s="5"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="5"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="5"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.6</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="2"/>
+        <v>1.4909999999999997</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="31.2">
+      <c r="A17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3">
+        <v>50</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="F17" s="3">
+        <v>40</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.25</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2409999999999997</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>55</v>
+      </c>
+      <c r="I18" s="12">
+        <f>E18*D18/100</f>
+        <v>-1</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="2"/>
+        <v>0.24099999999999966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3">
+        <v>400</v>
+      </c>
+      <c r="E19" s="3">
+        <f>-100*0.241/400</f>
+        <v>-6.0249999999999998E-2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>70</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.24099999999999999</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="3">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>70</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="5">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>70</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="31.2">
+      <c r="A22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>55</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>55</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>55</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3">
+        <v>50</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>70</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="46.8">
+      <c r="A26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="5">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3">
+        <v>50</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>70</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="3">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3">
+        <v>50</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>70</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="31.2">
+      <c r="A28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="5">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3">
+        <v>50</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>70</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3">
+        <v>50</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>70</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3">
+        <v>60</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>70</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="5">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3">
+        <v>60</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>70</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3">
+        <v>50</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>70</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="31.2">
+      <c r="A33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="5">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3">
+        <v>50</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>70</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3">
+        <v>50</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>70</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="3">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3">
+        <v>50</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>70</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="46.8">
+      <c r="A36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="5">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3">
+        <v>50</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>70</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="3">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3">
+        <v>50</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>70</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="3" t="str">
+        <f>A34</f>
+        <v>Red</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="3">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3">
+        <v>50</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>70</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="31.2">
+      <c r="A39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="5">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3">
+        <v>50</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>70</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="3">
+        <v>39</v>
+      </c>
+      <c r="D40" s="3">
+        <v>50</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>70</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="3">
+        <v>40</v>
+      </c>
+      <c r="D41" s="3">
+        <v>60</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>70</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="5">
+        <v>41</v>
+      </c>
+      <c r="D42" s="3">
+        <v>60</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>70</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="3">
+        <v>42</v>
+      </c>
+      <c r="D43" s="3">
+        <v>50</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>70</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="31.2">
+      <c r="A44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="3">
+        <v>43</v>
+      </c>
+      <c r="D44" s="3">
+        <v>50</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>70</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="5">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3">
+        <v>50</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>70</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="46.8">
+      <c r="A46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="3">
+        <v>45</v>
+      </c>
+      <c r="D46" s="3">
+        <v>50</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>70</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="3">
+        <v>46</v>
+      </c>
+      <c r="D47" s="3">
+        <v>75</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>70</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="31.2">
+      <c r="A48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="5">
+        <v>47</v>
+      </c>
+      <c r="D48" s="3">
+        <v>75</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>70</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="46.8">
+      <c r="A49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="3">
+        <v>48</v>
+      </c>
+      <c r="D49" s="3">
+        <v>75</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>70</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I49" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="3">
+        <v>49</v>
+      </c>
+      <c r="D50" s="3">
+        <v>50</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <v>60</v>
+      </c>
+      <c r="I50" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="5">
+        <v>50</v>
+      </c>
+      <c r="D51" s="3">
+        <v>50</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>60</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="3">
+        <v>51</v>
+      </c>
+      <c r="D52" s="3">
+        <v>50</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>55</v>
+      </c>
+      <c r="I52" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="3">
+        <v>52</v>
+      </c>
+      <c r="D53" s="3">
+        <v>43.2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>55</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="5">
+        <v>53</v>
+      </c>
+      <c r="D54" s="3">
+        <v>50</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>55</v>
+      </c>
+      <c r="I54" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="3">
+        <v>54</v>
+      </c>
+      <c r="D55" s="3">
+        <v>50</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>55</v>
+      </c>
+      <c r="I55" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.3306690738754696E-16</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="3">
+        <v>55</v>
+      </c>
+      <c r="D56" s="3">
+        <v>75</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F56" s="3">
+        <v>55</v>
+      </c>
+      <c r="I56" s="12">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="J56" s="12">
+        <f t="shared" si="2"/>
+        <v>0.37499999999999967</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="5">
+        <v>56</v>
+      </c>
+      <c r="D57" s="3">
+        <v>75</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>55</v>
+      </c>
+      <c r="I57" s="12">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="J57" s="12">
+        <f t="shared" si="2"/>
+        <v>0.74999999999999967</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="3">
+        <v>57</v>
+      </c>
+      <c r="D58" s="3">
+        <v>75</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="3">
+        <v>55</v>
+      </c>
+      <c r="I58" s="12">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="J58" s="12">
+        <f t="shared" si="2"/>
+        <v>1.1249999999999996</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="3">
+        <v>58</v>
+      </c>
+      <c r="D59" s="3">
+        <v>75</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>55</v>
+      </c>
+      <c r="I59" s="12">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="J59" s="12">
+        <f t="shared" si="2"/>
+        <v>1.8749999999999996</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="5">
+        <v>59</v>
+      </c>
+      <c r="D60" s="3">
+        <v>75</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F60" s="3">
+        <v>55</v>
+      </c>
+      <c r="I60" s="12">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="J60" s="12">
+        <f t="shared" si="2"/>
+        <v>2.2499999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="31.2">
+      <c r="A61" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" s="3">
+        <v>60</v>
+      </c>
+      <c r="D61" s="3">
+        <v>75</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>55</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I61" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="12">
+        <f t="shared" si="2"/>
+        <v>2.2499999999999996</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="3">
+        <v>61</v>
+      </c>
+      <c r="D62" s="3">
+        <v>75</v>
+      </c>
+      <c r="E62" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>55</v>
+      </c>
+      <c r="I62" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.375</v>
+      </c>
+      <c r="J62" s="12">
+        <f t="shared" si="2"/>
+        <v>1.8749999999999996</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="5">
+        <v>62</v>
+      </c>
+      <c r="D63" s="3">
+        <v>75</v>
+      </c>
+      <c r="E63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>55</v>
+      </c>
+      <c r="I63" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+      <c r="J63" s="12">
+        <f t="shared" si="2"/>
+        <v>1.1249999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="3">
+        <v>63</v>
+      </c>
+      <c r="D64" s="3">
+        <v>75</v>
+      </c>
+      <c r="E64" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>55</v>
+      </c>
+      <c r="I64" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.75</v>
+      </c>
+      <c r="J64" s="12">
+        <f t="shared" si="2"/>
+        <v>0.37499999999999956</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="3">
+        <v>64</v>
+      </c>
+      <c r="D65" s="3">
+        <v>75</v>
+      </c>
+      <c r="E65" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="F65" s="3">
+        <v>55</v>
+      </c>
+      <c r="I65" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.375</v>
+      </c>
+      <c r="J65" s="12">
+        <f t="shared" si="2"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="5">
+        <v>65</v>
+      </c>
+      <c r="D66" s="3">
+        <v>75</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>55</v>
+      </c>
+      <c r="I66" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="12">
+        <f t="shared" si="2"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="3">
+        <v>66</v>
+      </c>
+      <c r="D67" s="3">
+        <v>75</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>55</v>
+      </c>
+      <c r="I67" s="12">
+        <f t="shared" ref="I67:I77" si="3">E67*D67/100</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="12">
+        <f t="shared" si="2"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="3">
+        <v>67</v>
+      </c>
+      <c r="D68" s="3">
+        <v>50</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>55</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="12">
+        <f t="shared" ref="J68:J77" si="4">I68+J67</f>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="5">
+        <v>68</v>
+      </c>
+      <c r="D69" s="3">
+        <v>50</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>55</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I69" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Red</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="3">
+        <v>69</v>
+      </c>
+      <c r="D70" s="3">
+        <v>50</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>55</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="3" t="str">
+        <f t="shared" ref="A71:A77" si="5">A70</f>
+        <v>Red</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="3">
+        <v>70</v>
+      </c>
+      <c r="D71" s="3">
+        <v>50</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>55</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I71" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Red</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="5">
+        <v>71</v>
+      </c>
+      <c r="D72" s="3">
+        <v>50</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>55</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Red</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="3">
+        <v>72</v>
+      </c>
+      <c r="D73" s="3">
+        <v>50</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>55</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I73" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Red</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="3">
+        <v>73</v>
+      </c>
+      <c r="D74" s="3">
+        <v>50</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>55</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Red</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="5">
+        <v>74</v>
+      </c>
+      <c r="D75" s="3">
+        <v>50</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <v>55</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I75" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Red</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="3">
+        <v>75</v>
+      </c>
+      <c r="D76" s="3">
+        <v>50</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>55</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Red</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="3">
+        <v>76</v>
+      </c>
+      <c r="D77" s="3">
+        <v>50</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>55</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I77" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="12">
+        <f t="shared" si="4"/>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="5">
+        <v>77</v>
+      </c>
+      <c r="D78" s="3">
+        <v>50</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>35</v>
+      </c>
+      <c r="I78" s="12">
+        <f t="shared" ref="I78" si="6">E78*D78/100</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="12">
+        <f t="shared" ref="J78" si="7">I78+J77</f>
+        <v>-4.4408920985006262E-16</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="C80" s="5"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3">
       <c r="C81" s="5"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3">
       <c r="C82" s="5"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3">
       <c r="C83" s="5"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3">
       <c r="C84" s="5"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3">
       <c r="C85" s="5"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3">
       <c r="C86" s="5"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3">
       <c r="C87" s="5"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3">
       <c r="C88" s="5"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3">
       <c r="C89" s="5"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3">
       <c r="C90" s="5"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3">
       <c r="C91" s="5"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3">
       <c r="C92" s="5"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3">
       <c r="C93" s="5"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3">
       <c r="C94" s="5"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3">
       <c r="C95" s="5"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3">
       <c r="C96" s="5"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3">
       <c r="C97" s="5"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3">
       <c r="C98" s="5"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3">
       <c r="C99" s="5"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3">
       <c r="C100" s="5"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3">
       <c r="C101" s="5"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3">
       <c r="C102" s="5"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3">
       <c r="C103" s="5"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3">
       <c r="C104" s="5"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3">
       <c r="C105" s="5"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3">
       <c r="C106" s="5"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3">
       <c r="C107" s="5"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3">
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3">
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3">
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3">
       <c r="C111" s="5"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3">
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3">
       <c r="C113" s="5"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3">
       <c r="C114" s="5"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3">
       <c r="C115" s="5"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3">
       <c r="C116" s="5"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3">
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3">
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3">
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3">
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3">
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3">
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3">
       <c r="C123" s="5"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3">
       <c r="C124" s="5"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3">
       <c r="C125" s="5"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3">
       <c r="C126" s="5"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3">
       <c r="C127" s="5"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3">
       <c r="C128" s="5"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3">
       <c r="C129" s="5"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3">
       <c r="C130" s="5"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3">
       <c r="C131" s="5"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3">
       <c r="C132" s="5"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3">
       <c r="C133" s="5"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3">
       <c r="C134" s="5"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3">
       <c r="C135" s="5"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3">
       <c r="C136" s="5"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3">
       <c r="C137" s="5"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3">
       <c r="C138" s="5"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3">
       <c r="C139" s="5"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3">
       <c r="C140" s="5"/>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:3">
       <c r="C141" s="5"/>
     </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:3">
       <c r="C142" s="5"/>
     </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:3">
       <c r="C143" s="5"/>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:3">
       <c r="C144" s="5"/>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:3">
       <c r="C145" s="5"/>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:3">
       <c r="C146" s="5"/>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:3">
       <c r="C147" s="5"/>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:3">
       <c r="C148" s="5"/>
     </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:3">
       <c r="C149" s="5"/>
     </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:3">
       <c r="C150" s="5"/>
     </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:3">
       <c r="C151" s="5"/>
     </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:3">
       <c r="C152" s="5"/>
     </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:3">
       <c r="C153" s="5"/>
     </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:3">
       <c r="C154" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:L22"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="3"/>
     <col min="2" max="2" width="12.88671875" style="3" customWidth="1"/>
@@ -2288,7 +4034,7 @@
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="46.8">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2305,25 +4051,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2351,13 +4097,13 @@
         <v>0.5</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Green</v>
@@ -2378,7 +4124,7 @@
         <v>55</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I66" si="0">E3*D3/100</f>
@@ -2389,7 +4135,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A70" si="1">A3</f>
         <v>Green</v>
@@ -2418,10 +4164,10 @@
         <v>3</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2450,10 +4196,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2482,7 +4228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2511,10 +4257,10 @@
         <v>12</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2544,10 +4290,10 @@
         <v>17</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2576,7 +4322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2597,7 +4343,7 @@
         <v>55</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
@@ -2608,7 +4354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2637,7 +4383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2666,7 +4412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2698,13 +4444,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2733,13 +4479,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2768,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2797,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2829,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2861,10 +4607,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2893,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2914,7 +4660,7 @@
         <v>60</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
@@ -2925,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2954,10 +4700,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -2986,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3010,7 +4756,7 @@
         <v>70</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
@@ -3021,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3050,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3079,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3108,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3137,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3166,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3195,13 +4941,13 @@
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3233,13 +4979,13 @@
         <v>0</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3268,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3289,7 +5035,7 @@
         <v>70</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="0"/>
@@ -3300,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
       <c r="A33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3329,10 +5075,10 @@
         <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3361,10 +5107,10 @@
         <v>0</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3393,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
       <c r="A36" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3422,10 +5168,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3457,10 +5203,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="3" t="str">
         <f>A34</f>
         <v>Green</v>
@@ -3492,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
       <c r="A39" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3524,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="31.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3545,7 +5291,7 @@
         <v>70</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="0"/>
@@ -3556,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3588,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3620,7 +5366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3652,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3684,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3716,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12">
       <c r="A46" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3748,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12">
       <c r="A47" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3780,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12">
       <c r="A48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3812,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="31.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3833,7 +5579,7 @@
         <v>70</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="0"/>
@@ -3844,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12">
       <c r="A50" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3876,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12">
       <c r="A51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3908,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12">
       <c r="A52" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3940,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12">
       <c r="A53" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -3972,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12">
       <c r="A54" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4004,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12">
       <c r="A55" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4036,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12">
       <c r="A56" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4068,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12">
       <c r="A57" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4100,7 +5846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="31.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4121,7 +5867,7 @@
         <v>70</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="0"/>
@@ -4132,13 +5878,13 @@
         <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4159,7 +5905,7 @@
         <v>60</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="0"/>
@@ -4170,13 +5916,13 @@
         <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4205,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12">
       <c r="A61" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4234,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4263,10 +6009,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4287,7 +6033,7 @@
         <v>60</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="0"/>
@@ -4298,13 +6044,13 @@
         <v>0</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4333,10 +6079,10 @@
         <v>0</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4365,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4386,7 +6132,7 @@
         <v>70</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="0"/>
@@ -4397,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4426,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4455,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4484,10 +6230,10 @@
         <v>0</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Green</v>
@@ -4516,10 +6262,10 @@
         <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A134" si="5">A70</f>
         <v>Green</v>
@@ -4548,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -4577,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -4606,7 +6352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -4627,7 +6373,7 @@
         <v>60</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="3"/>
@@ -4638,10 +6384,10 @@
         <v>0</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -4670,10 +6416,10 @@
         <v>0</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -4702,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -4734,13 +6480,13 @@
         <v>0</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -4761,7 +6507,7 @@
         <v>70</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" ref="I78:I109" si="6">E78*D78/100</f>
@@ -4772,13 +6518,13 @@
         <v>0</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -4807,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -4836,7 +6582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12">
       <c r="A81" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -4865,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12">
       <c r="A82" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -4894,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12">
       <c r="A83" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -4923,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12">
       <c r="A84" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -4952,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12">
       <c r="A85" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -4981,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12">
       <c r="A86" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5010,13 +6756,13 @@
         <v>0</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5048,13 +6794,13 @@
         <v>0</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5083,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12">
       <c r="A89" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5104,7 +6850,7 @@
         <v>55</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="6"/>
@@ -5115,10 +6861,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5147,10 +6893,10 @@
         <v>-0.375</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5179,7 +6925,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12">
       <c r="A92" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5208,7 +6954,7 @@
         <v>-2.625</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12">
       <c r="A93" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5237,7 +6983,7 @@
         <v>-2.625</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12">
       <c r="A94" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5266,7 +7012,7 @@
         <v>-1.125</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12">
       <c r="A95" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5295,7 +7041,7 @@
         <v>-0.375</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12">
       <c r="A96" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5324,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12">
       <c r="A97" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5345,7 +7091,7 @@
         <v>55</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="6"/>
@@ -5356,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12">
       <c r="A98" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5385,10 +7131,10 @@
         <v>0</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5417,10 +7163,10 @@
         <v>0</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5449,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12">
       <c r="A101" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5478,13 +7224,13 @@
         <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5513,13 +7259,13 @@
         <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5548,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5580,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12">
       <c r="A105" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5609,10 +7355,10 @@
         <v>0</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5645,10 +7391,10 @@
         <v>0</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5677,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12">
       <c r="A108" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5706,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12">
       <c r="A109" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5735,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12">
       <c r="A110" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
@@ -5764,16 +7510,16 @@
         <v>0</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C111" s="5">
         <v>110</v>
@@ -5796,16 +7542,16 @@
         <v>0</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C112" s="3">
         <v>111</v>
@@ -5828,13 +7574,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12">
       <c r="A113" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C113" s="3">
         <v>112</v>
@@ -5857,13 +7603,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12">
       <c r="A114" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C114" s="3">
         <v>113</v>
@@ -5886,13 +7632,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12">
       <c r="A115" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C115" s="5">
         <v>114</v>
@@ -5919,13 +7665,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12">
       <c r="A116" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C116" s="3">
         <v>115</v>
@@ -5948,13 +7694,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12">
       <c r="A117" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C117" s="3">
         <v>116</v>
@@ -5977,16 +7723,16 @@
         <v>0</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C118" s="3">
         <v>117</v>
@@ -6009,16 +7755,16 @@
         <v>0</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C119" s="5">
         <v>118</v>
@@ -6041,13 +7787,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12">
       <c r="A120" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C120" s="3">
         <v>119</v>
@@ -6070,13 +7816,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12">
       <c r="A121" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C121" s="3">
         <v>120</v>
@@ -6099,13 +7845,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12">
       <c r="A122" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C122" s="3">
         <v>121</v>
@@ -6128,16 +7874,16 @@
         <v>0</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C123" s="5">
         <v>122</v>
@@ -6163,16 +7909,16 @@
         <v>0</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="31.2">
       <c r="A124" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C124" s="3">
         <v>123</v>
@@ -6199,13 +7945,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12">
       <c r="A125" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C125" s="3">
         <v>124</v>
@@ -6231,13 +7977,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12">
       <c r="A126" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C126" s="3">
         <v>125</v>
@@ -6263,13 +8009,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12">
       <c r="A127" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C127" s="5">
         <v>126</v>
@@ -6295,13 +8041,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12">
       <c r="A128" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C128" s="3">
         <v>127</v>
@@ -6327,13 +8073,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12">
       <c r="A129" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C129" s="3">
         <v>128</v>
@@ -6359,13 +8105,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12">
       <c r="A130" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C130" s="3">
         <v>129</v>
@@ -6391,13 +8137,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12">
       <c r="A131" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C131" s="5">
         <v>130</v>
@@ -6423,13 +8169,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12">
       <c r="A132" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C132" s="3">
         <v>131</v>
@@ -6455,13 +8201,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="31.2">
       <c r="A133" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C133" s="3">
         <v>132</v>
@@ -6488,13 +8234,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12">
       <c r="A134" s="3" t="str">
         <f t="shared" si="5"/>
         <v>Green</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C134" s="3">
         <v>133</v>
@@ -6520,13 +8266,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12">
       <c r="A135" s="3" t="str">
         <f t="shared" ref="A135:A153" si="10">A134</f>
         <v>Green</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C135" s="5">
         <v>134</v>
@@ -6552,13 +8298,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12">
       <c r="A136" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C136" s="3">
         <v>135</v>
@@ -6584,13 +8330,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12">
       <c r="A137" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C137" s="3">
         <v>136</v>
@@ -6616,13 +8362,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12">
       <c r="A138" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C138" s="3">
         <v>137</v>
@@ -6648,13 +8394,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12">
       <c r="A139" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C139" s="5">
         <v>138</v>
@@ -6680,13 +8426,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12">
       <c r="A140" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C140" s="3">
         <v>139</v>
@@ -6712,13 +8458,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12">
       <c r="A141" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C141" s="3">
         <v>140</v>
@@ -6744,13 +8490,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="31.2">
       <c r="A142" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C142" s="3">
         <v>141</v>
@@ -6777,13 +8523,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12">
       <c r="A143" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C143" s="5">
         <v>142</v>
@@ -6809,13 +8555,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12">
       <c r="A144" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C144" s="3">
         <v>143</v>
@@ -6841,16 +8587,16 @@
         <v>0</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C145" s="3">
         <v>144</v>
@@ -6873,16 +8619,16 @@
         <v>0</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C146" s="3">
         <v>145</v>
@@ -6905,13 +8651,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12">
       <c r="A147" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C147" s="5">
         <v>146</v>
@@ -6934,16 +8680,16 @@
         <v>0</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C148" s="3">
         <v>147</v>
@@ -6966,16 +8712,16 @@
         <v>0</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C149" s="3">
         <v>148</v>
@@ -6998,13 +8744,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12">
       <c r="A150" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C150" s="3">
         <v>149</v>
@@ -7027,16 +8773,16 @@
         <v>0</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C151" s="5">
         <v>150</v>
@@ -7059,19 +8805,19 @@
         <v>0</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C152" s="5">
         <v>151</v>
@@ -7094,19 +8840,19 @@
         <v>0</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="3" t="str">
         <f t="shared" si="10"/>
         <v>Green</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C153" s="5">
         <v>152</v>
@@ -7129,30 +8875,29 @@
         <v>0</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
@@ -7168,7 +8913,7 @@
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>16</v>
       </c>
@@ -7182,16 +8927,16 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15.6">
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.6">
       <c r="E9" s="10"/>
     </row>
-    <row r="19" spans="11:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:11" ht="15.6">
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="11:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:11" ht="15.6">
       <c r="K20" s="10"/>
     </row>
   </sheetData>
@@ -7200,7 +8945,6 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7208,28 +8952,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
